--- a/Fish/Fish.xlsx
+++ b/Fish/Fish.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malco\Downloads\Fish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\School\senior2\AI\ML-Fish\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="148">
   <si>
     <t>bass_1</t>
   </si>
@@ -423,13 +423,61 @@
   </si>
   <si>
     <t>TESTES</t>
+  </si>
+  <si>
+    <t>ID3 Output</t>
+  </si>
+  <si>
+    <t>N/A (Black)</t>
+  </si>
+  <si>
+    <t>N/A (none)</t>
+  </si>
+  <si>
+    <t>flound_12</t>
+  </si>
+  <si>
+    <t>shark_11</t>
+  </si>
+  <si>
+    <t>N/A (blue)</t>
+  </si>
+  <si>
+    <t>trout_12</t>
+  </si>
+  <si>
+    <t>eel_12</t>
+  </si>
+  <si>
+    <t>tuna_12</t>
+  </si>
+  <si>
+    <t>cat_14</t>
+  </si>
+  <si>
+    <t>shark_12</t>
+  </si>
+  <si>
+    <t>16/20</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>12/16   -</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,13 +493,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -463,18 +547,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,29 +905,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M77" sqref="M77"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -840,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -878,7 +1000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +1038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -954,7 +1076,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -992,7 +1114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1190,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1228,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1296,7 +1418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1456,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1494,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1570,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1608,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1646,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1562,7 +1684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1600,7 +1722,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1760,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1798,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1874,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +1912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1828,7 +1950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1866,7 +1988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +2026,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1942,7 +2064,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1980,7 +2102,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2018,7 +2140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2056,7 +2178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2094,7 +2216,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2132,7 +2254,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2170,7 +2292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2208,7 +2330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2246,7 +2368,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2284,7 +2406,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2322,7 +2444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2360,7 +2482,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2398,7 +2520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2436,7 +2558,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2474,7 +2596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2512,7 +2634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2550,7 +2672,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2588,7 +2710,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2626,7 +2748,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2664,7 +2786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2702,7 +2824,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2740,7 +2862,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2778,7 +2900,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -2816,7 +2938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -2892,7 +3014,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2930,7 +3052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -2968,7 +3090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -3006,7 +3128,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3044,7 +3166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -3082,7 +3204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3120,7 +3242,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -3158,7 +3280,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3196,7 +3318,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -3234,7 +3356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -3272,7 +3394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -3310,7 +3432,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -3348,7 +3470,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -3386,7 +3508,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -3424,7 +3546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -3462,7 +3584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -3500,7 +3622,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -3538,7 +3660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -3576,7 +3698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -3614,7 +3736,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -3652,7 +3774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -3690,7 +3812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -3728,7 +3850,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -3766,7 +3888,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -3804,7 +3926,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -3842,7 +3964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3880,12 +4002,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3922,16 +4049,19 @@
       <c r="L85" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M85" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -3940,16 +4070,16 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J86" t="s">
         <v>115</v>
@@ -3960,31 +4090,34 @@
       <c r="L86" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M86" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
         <v>46</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I87" t="s">
         <v>115</v>
@@ -3998,25 +4131,34 @@
       <c r="L87" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
         <v>123</v>
@@ -4028,42 +4170,51 @@
         <v>115</v>
       </c>
       <c r="J88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L88" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H89" t="s">
         <v>117</v>
       </c>
       <c r="I89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J89" t="s">
         <v>115</v>
@@ -4074,34 +4225,37 @@
       <c r="L89" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M89" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H90" t="s">
         <v>117</v>
       </c>
       <c r="I90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J90" t="s">
         <v>114</v>
@@ -4112,19 +4266,22 @@
       <c r="L90" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M90" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4133,13 +4290,13 @@
         <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J91" t="s">
         <v>115</v>
@@ -4148,15 +4305,18 @@
         <v>115</v>
       </c>
       <c r="L91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>121</v>
@@ -4171,51 +4331,54 @@
         <v>122</v>
       </c>
       <c r="G92" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J92" t="s">
         <v>115</v>
       </c>
       <c r="K92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L92" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M92" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H93" t="s">
         <v>117</v>
       </c>
       <c r="I93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J93" t="s">
         <v>114</v>
@@ -4226,13 +4389,16 @@
       <c r="L93" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M93" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C94" t="s">
         <v>121</v>
@@ -4247,13 +4413,13 @@
         <v>124</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J94" t="s">
         <v>115</v>
@@ -4262,59 +4428,65 @@
         <v>115</v>
       </c>
       <c r="L94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K95" t="s">
         <v>115</v>
       </c>
       <c r="L95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4323,22 +4495,353 @@
         <v>122</v>
       </c>
       <c r="G96" t="s">
+        <v>128</v>
+      </c>
+      <c r="H96" t="s">
         <v>123</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
+        <v>114</v>
+      </c>
+      <c r="J96" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" t="s">
+        <v>115</v>
+      </c>
+      <c r="L96" t="s">
+        <v>115</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
+      <c r="H97" t="s">
+        <v>113</v>
+      </c>
+      <c r="I97" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" t="s">
+        <v>115</v>
+      </c>
+      <c r="L97" t="s">
+        <v>115</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>122</v>
+      </c>
+      <c r="G98" t="s">
+        <v>128</v>
+      </c>
+      <c r="H98" t="s">
+        <v>128</v>
+      </c>
+      <c r="I98" t="s">
+        <v>115</v>
+      </c>
+      <c r="J98" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" t="s">
+        <v>115</v>
+      </c>
+      <c r="L98" t="s">
+        <v>115</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
+      <c r="H99" t="s">
         <v>130</v>
       </c>
-      <c r="I96" t="s">
-        <v>115</v>
-      </c>
-      <c r="J96" t="s">
-        <v>115</v>
-      </c>
-      <c r="K96" t="s">
-        <v>115</v>
-      </c>
-      <c r="L96" t="s">
-        <v>115</v>
+      <c r="I99" t="s">
+        <v>115</v>
+      </c>
+      <c r="J99" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" t="s">
+        <v>115</v>
+      </c>
+      <c r="L99" t="s">
+        <v>115</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>122</v>
+      </c>
+      <c r="G100" t="s">
+        <v>123</v>
+      </c>
+      <c r="H100" t="s">
+        <v>123</v>
+      </c>
+      <c r="I100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J100" t="s">
+        <v>115</v>
+      </c>
+      <c r="K100" t="s">
+        <v>115</v>
+      </c>
+      <c r="L100" t="s">
+        <v>114</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>124</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
+      <c r="H101" t="s">
+        <v>117</v>
+      </c>
+      <c r="I101" t="s">
+        <v>114</v>
+      </c>
+      <c r="J101" t="s">
+        <v>115</v>
+      </c>
+      <c r="K101" t="s">
+        <v>114</v>
+      </c>
+      <c r="L101" t="s">
+        <v>115</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H102" t="s">
+        <v>130</v>
+      </c>
+      <c r="I102" t="s">
+        <v>115</v>
+      </c>
+      <c r="J102" t="s">
+        <v>115</v>
+      </c>
+      <c r="K102" t="s">
+        <v>114</v>
+      </c>
+      <c r="L102" t="s">
+        <v>115</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G103" t="s">
+        <v>123</v>
+      </c>
+      <c r="H103" t="s">
+        <v>120</v>
+      </c>
+      <c r="I103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J103" t="s">
+        <v>114</v>
+      </c>
+      <c r="K103" t="s">
+        <v>115</v>
+      </c>
+      <c r="L103" t="s">
+        <v>115</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104" t="s">
+        <v>120</v>
+      </c>
+      <c r="H104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I104" t="s">
+        <v>114</v>
+      </c>
+      <c r="J104" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" t="s">
+        <v>115</v>
+      </c>
+      <c r="L104" t="s">
+        <v>115</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
